--- a/second_challenge/deliverables/graph.xlsx
+++ b/second_challenge/deliverables/graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chri/Documents/GitHub/aapp-rossi-sulfaro/second_challenge/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC872A-FCEB-A145-8CE2-D18685B1773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DC7C8A-6B36-CC44-96A7-394F12450177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{FAA87059-31DF-46F3-81C1-3459E8424C7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>NoCo</t>
   </si>
@@ -53,10 +53,13 @@
     <t>All very strict</t>
   </si>
   <si>
-    <t>3,11</t>
+    <t>Number of threads</t>
   </si>
   <si>
-    <t>2,22</t>
+    <t>Time [s]</t>
+  </si>
+  <si>
+    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -92,12 +95,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,6 +121,2721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sudoku</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 16x16</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$11:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NoCo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$9:$I$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.625999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.562000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.297999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.827000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5679-574C-AC4E-1552F473E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$12:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$9:$I$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.422000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.768999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5679-574C-AC4E-1552F473E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$13:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DepthSerial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$9:$I$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5679-574C-AC4E-1552F473E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$14:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All strict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$9:$I$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2810000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5679-574C-AC4E-1552F473E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$15:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All very strict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$9:$I$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1830000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5679-574C-AC4E-1552F473E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1068875151"/>
+        <c:axId val="227804176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068875151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227804176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227804176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068875151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sudoku</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 25x25</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$43:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NoCo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$41:$G$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F4-4B42-B6C7-339BC0988EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$44:$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$41:$G$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4F4-4B42-B6C7-339BC0988EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$45:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DepthSerial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$41:$G$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>359.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.69900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4F4-4B42-B6C7-339BC0988EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$46:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All strict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$41:$G$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>347.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210.21299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.77799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4F4-4B42-B6C7-339BC0988EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$47:$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All very strict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$C$41:$G$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of threads</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>345.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.36199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.20599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.12899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4F4-4B42-B6C7-339BC0988EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1142603455"/>
+        <c:axId val="1468544015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1142603455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468544015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468544015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142603455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>329913</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268953</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7309D7B4-72ED-7332-14E4-F6AA550A818F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116A9AD6-C0DC-2F6B-6FBE-46966E306181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,171 +3155,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0770BF89-431F-46C4-88CA-CD5FA27B2B3B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A9:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F1">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G1">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H1">
+      <c r="I10">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>17611</v>
-      </c>
-      <c r="C2" s="1">
-        <v>38626</v>
-      </c>
-      <c r="D2" s="1">
-        <v>29562</v>
-      </c>
-      <c r="E2" s="1">
-        <v>28861</v>
-      </c>
-      <c r="F2" s="1">
-        <v>27235</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20298</v>
-      </c>
-      <c r="H2" s="1">
-        <v>23827</v>
+      <c r="C11" s="2">
+        <v>17.611000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>38.625999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29.562000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>28.861000000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>27.234999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20.297999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>23.827000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>21797</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23422</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27376</v>
-      </c>
-      <c r="E3" s="1">
-        <v>24766</v>
-      </c>
-      <c r="F3" s="1">
-        <v>24297</v>
-      </c>
-      <c r="G3" s="1">
-        <v>24906</v>
-      </c>
-      <c r="H3" s="1">
-        <v>25769</v>
+      <c r="C12" s="2">
+        <v>21.797000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23.422000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27.376000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>24.765999999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>24.297000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25.768999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>7032</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4956</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C13" s="2">
+        <v>7.032</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.048</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.984</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.2810000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.657</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.423</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.829</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
-        <v>2937</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2781</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3048</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>359.17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>208.69900000000001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>128.648</v>
+      </c>
+      <c r="F45" s="2">
+        <v>109.694</v>
+      </c>
+      <c r="G45" s="2">
+        <v>108.848</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>5984</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3485</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2922</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2626</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2422</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2281</v>
-      </c>
+      <c r="C46" s="2">
+        <v>347.12900000000002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>210.21299999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <v>143.77799999999999</v>
+      </c>
+      <c r="F46" s="2">
+        <v>160.62200000000001</v>
+      </c>
+      <c r="G46" s="3">
+        <v>137</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>5657</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3235</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2423</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2297</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1751</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1829</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1183</v>
-      </c>
+      <c r="C47" s="2">
+        <v>345.85500000000002</v>
+      </c>
+      <c r="D47" s="2">
+        <v>210.10300000000001</v>
+      </c>
+      <c r="E47" s="2">
+        <v>154.36199999999999</v>
+      </c>
+      <c r="F47" s="2">
+        <v>155.20599999999999</v>
+      </c>
+      <c r="G47" s="2">
+        <v>132.12899999999999</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="C41:G41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>